--- a/Docs/Root Rot equations.xlsx
+++ b/Docs/Root Rot equations.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ph</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>p(S:I)</t>
   </si>
@@ -83,6 +80,15 @@
   <si>
     <t>maxProbDI</t>
   </si>
+  <si>
+    <t>Calculated Values</t>
+  </si>
+  <si>
+    <t>User Inputs</t>
+  </si>
+  <si>
+    <t>pressure head (mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +116,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,13 +137,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +217,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -447,11 +482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252379000"/>
-        <c:axId val="252376256"/>
+        <c:axId val="433830032"/>
+        <c:axId val="433832384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252379000"/>
+        <c:axId val="433830032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -499,6 +534,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -565,12 +601,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252376256"/>
+        <c:crossAx val="433832384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252376256"/>
+        <c:axId val="433832384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -617,6 +653,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -683,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252379000"/>
+        <c:crossAx val="433830032"/>
         <c:crossesAt val="-25"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1084,11 +1121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252373120"/>
-        <c:axId val="252371552"/>
+        <c:axId val="433834736"/>
+        <c:axId val="433832776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252373120"/>
+        <c:axId val="433834736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1202,12 +1239,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252371552"/>
+        <c:crossAx val="433832776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252371552"/>
+        <c:axId val="433832776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1321,7 +1358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252373120"/>
+        <c:crossAx val="433834736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1367,6 +1404,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1781,11 +1819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252372728"/>
-        <c:axId val="252371944"/>
+        <c:axId val="433829640"/>
+        <c:axId val="433833560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252372728"/>
+        <c:axId val="433829640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1899,12 +1937,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252371944"/>
+        <c:crossAx val="433833560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252371944"/>
+        <c:axId val="433833560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2018,7 +2056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252372728"/>
+        <c:crossAx val="433829640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2419,11 +2457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252376648"/>
-        <c:axId val="252372336"/>
+        <c:axId val="433835520"/>
+        <c:axId val="433830424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252376648"/>
+        <c:axId val="433835520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2537,12 +2575,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252372336"/>
+        <c:crossAx val="433830424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252372336"/>
+        <c:axId val="433830424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2656,7 +2694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252376648"/>
+        <c:crossAx val="433835520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4935,15 +4973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
+      <xdr:colOff>404812</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4973,7 +5011,7 @@
       <cdr:y>0.87326</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.30937</cdr:x>
+      <cdr:x>0.24479</cdr:x>
       <cdr:y>0.9566</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -4983,8 +5021,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="280987" y="2395537"/>
-          <a:ext cx="1133475" cy="228601"/>
+          <a:off x="280995" y="2395527"/>
+          <a:ext cx="838193" cy="228618"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5001,7 +5039,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>LethalTemp = -24</a:t>
+            <a:t>LethalTemp</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5077,15 +5115,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5113,12 +5151,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14375</cdr:x>
-      <cdr:y>0.85069</cdr:y>
+      <cdr:x>0.19063</cdr:x>
+      <cdr:y>0.80903</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.34375</cdr:x>
-      <cdr:y>0.94097</cdr:y>
+      <cdr:x>0.31146</cdr:x>
+      <cdr:y>0.89931</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5127,8 +5165,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="657225" y="2333625"/>
-          <a:ext cx="914400" cy="247650"/>
+          <a:off x="871538" y="2219325"/>
+          <a:ext cx="552450" cy="247650"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5145,7 +5183,52 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phWet = 30</a:t>
+            <a:t>phWet</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14375</cdr:x>
+      <cdr:y>0.85069</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.275</cdr:x>
+      <cdr:y>0.94097</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="657225" y="2333613"/>
+          <a:ext cx="600075" cy="247656"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phWet </a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5153,11 +5236,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.52986</cdr:x>
+      <cdr:x>0.55278</cdr:x>
       <cdr:y>0.82639</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.72986</cdr:x>
+      <cdr:x>0.66875</cdr:x>
       <cdr:y>0.91667</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -5167,8 +5250,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2422525" y="2266950"/>
-          <a:ext cx="914400" cy="247650"/>
+          <a:off x="2527295" y="2266953"/>
+          <a:ext cx="530230" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5249,7 +5332,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phDry = 150</a:t>
+            <a:t>phDry </a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5257,12 +5340,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79653</cdr:x>
-      <cdr:y>0.86574</cdr:y>
+      <cdr:x>0.87153</cdr:x>
+      <cdr:y>0.07407</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99653</cdr:x>
-      <cdr:y>0.95602</cdr:y>
+      <cdr:x>0.98542</cdr:x>
+      <cdr:y>0.16435</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5271,8 +5354,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3641725" y="2374900"/>
-          <a:ext cx="914400" cy="247650"/>
+          <a:off x="3984636" y="203198"/>
+          <a:ext cx="520690" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5353,7 +5436,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phMax = 250</a:t>
+            <a:t>phMax</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5365,7 +5448,7 @@
       <cdr:y>0.66435</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.88958</cdr:x>
+      <cdr:x>0.82917</cdr:x>
       <cdr:y>0.75463</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -5375,8 +5458,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2984499" y="1822450"/>
-          <a:ext cx="1082675" cy="247656"/>
+          <a:off x="2984510" y="1822445"/>
+          <a:ext cx="806440" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5457,7 +5540,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>minProbID = 0.1</a:t>
+            <a:t>minProbID</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5466,7 +5549,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5474,7 +5557,7 @@
       <cdr:y>0.20602</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.8125</cdr:x>
+      <cdr:x>0.74375</cdr:x>
       <cdr:y>0.2963</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -5484,8 +5567,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2565400" y="565150"/>
-          <a:ext cx="1149350" cy="247656"/>
+          <a:off x="2565396" y="565154"/>
+          <a:ext cx="835030" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5566,7 +5649,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>maxProbDI = 0.85</a:t>
+            <a:t>maxProbDI</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5574,12 +5657,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14653</cdr:x>
-      <cdr:y>0.86227</cdr:y>
+      <cdr:x>0.19028</cdr:x>
+      <cdr:y>0.81366</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.34653</cdr:x>
-      <cdr:y>0.95255</cdr:y>
+      <cdr:x>0.31458</cdr:x>
+      <cdr:y>0.90394</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5588,8 +5671,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="669925" y="2365375"/>
-          <a:ext cx="914400" cy="247656"/>
+          <a:off x="869960" y="2232029"/>
+          <a:ext cx="568315" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5670,7 +5753,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phWet = 30</a:t>
+            <a:t>phWet</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5678,11 +5761,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65694</cdr:x>
+      <cdr:x>0.69236</cdr:x>
       <cdr:y>0.86227</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85694</cdr:x>
+      <cdr:x>0.80833</cdr:x>
       <cdr:y>0.95255</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -5692,8 +5775,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3003550" y="2365375"/>
-          <a:ext cx="914400" cy="247656"/>
+          <a:off x="3165455" y="2365379"/>
+          <a:ext cx="530245" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5774,7 +5857,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phDry = 150</a:t>
+            <a:t>phDry</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -6046,25 +6129,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-24</v>
       </c>
     </row>
@@ -6348,6 +6440,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6355,40 +6450,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
         <f>(G2+G3)/2</f>
         <v>90</v>
       </c>
@@ -6410,15 +6516,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
         <v>150</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
         <f>1/(J2-G2)</f>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -6440,15 +6546,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
         <v>250</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
         <f>-1*G2*J3</f>
         <v>-0.5</v>
       </c>
@@ -6470,15 +6576,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>0.1</v>
       </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
         <f>1/(J2-G3)</f>
         <v>-1.6666666666666666E-2</v>
       </c>
@@ -6500,15 +6606,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>0.85</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
         <f>-1*G3*(1/(J2-G3))</f>
         <v>2.5</v>
       </c>
@@ -6529,10 +6635,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
         <f>(1-G5)/(G4-G3)</f>
         <v>9.0000000000000011E-3</v>
       </c>
@@ -6553,10 +6659,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
         <f>G5-(G3*J7)</f>
         <v>-1.25</v>
       </c>
@@ -7330,6 +7436,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Docs/Root Rot equations.xlsx
+++ b/Docs/Root Rot equations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="11970" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16935" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dTemp" sheetId="2" r:id="rId1"/>
@@ -154,10 +154,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -217,7 +217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -482,11 +481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="433830032"/>
-        <c:axId val="433832384"/>
+        <c:axId val="420513624"/>
+        <c:axId val="420512840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="433830032"/>
+        <c:axId val="420513624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -530,6 +529,950 @@
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>AnnTmin (C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420512840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420512840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dTemp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420513624"/>
+        <c:crossesAt val="-25"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Susceptible to Infected</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dWater!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p(S:I)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dWater!$A$3:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dWater!$B$3:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98039215686274517</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96078431372549011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92156862745098045</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74509803921568629</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72549019607843146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70588235294117641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62745098039215685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60784313725490202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58823529411764719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56862745098039214</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5490196078431373</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52941176470588247</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50980392156862742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49019607843137258</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47058823529411775</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4509803921568627</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43137254901960786</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41176470588235303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39215686274509798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37254901960784315</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35294117647058831</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31372549019607843</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29411764705882359</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27450980392156854</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25490196078431371</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23529411764705888</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13725490196078427</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11764705882352944</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.8039215686274606E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.8431372549019551E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8823529411764719E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9215686274509887E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9607843137254832E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420514800"/>
+        <c:axId val="420518328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420514800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pressure head (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -601,12 +1544,995 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433832384"/>
+        <c:crossAx val="420518328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433832384"/>
+        <c:axId val="420518328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>p(S→I)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420514800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Infected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to Diseased</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dWater!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p(I:D)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dWater!$A$3:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dWater!$C$3:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98039215686274517</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96078431372549011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92156862745098045</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74509803921568629</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72549019607843146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70588235294117641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62745098039215685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60784313725490202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58823529411764719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56862745098039214</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5490196078431373</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52941176470588247</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50980392156862742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49019607843137258</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47058823529411775</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4509803921568627</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43137254901960786</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41176470588235303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39215686274509798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37254901960784315</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35294117647058831</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33333333333333326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31372549019607843</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.29411764705882359</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27450980392156854</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25490196078431371</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23529411764705888</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13725490196078427</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11764705882352944</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.10135135135135132</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.10810810810810811</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1148648648648648</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.1216216216216216</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.15540540540540537</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.18918918918918914</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.22297297297297292</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.2567567567567568</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.29054054054054057</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.32432432432432434</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.35810810810810811</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.39189189189189189</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42567567567567566</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.45945945945945943</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.4932432432432432</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.52702702702702697</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.56081081081081074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.59459459459459452</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.62837837837837829</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.66216216216216206</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.69594594594594605</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.72972972972972983</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.7635135135135136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.79729729729729737</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83108108108108114</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.86486486486486491</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.89864864864864868</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.93243243243243246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96621621621621623</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420518720"/>
+        <c:axId val="420511272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420518720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pressure head (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420511272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420511272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -648,7 +2574,18 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>dTemp</a:t>
+                  <a:t>p(I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>→</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>D)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -720,8 +2657,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433830032"/>
-        <c:crossesAt val="-25"/>
+        <c:crossAx val="420518720"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -770,7 +2707,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -785,6 +2722,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Diseased to Infected</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -826,11 +2788,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>dWater!$B$2</c:f>
+              <c:f>dWater!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p(S:I)</c:v>
+                  <c:v>p(D:I)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -838,7 +2800,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -849,131 +2811,242 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>dWater!$A$3:$A$43</c:f>
+              <c:f>dWater!$A$3:$A$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="43">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="44">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="49">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="54">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="56">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="57">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="62">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="63">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="64">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="65">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="66">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="67">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="68">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="69">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="70">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="71">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="72">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="73">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="74">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="75">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="76">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="77">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -981,27 +3054,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>dWater!$B$3:$B$43</c:f>
+              <c:f>dWater!$D$3:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666674</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1025,87 +3098,198 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>3.9215686274509665E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8431372549019773E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11764705882352944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1568627450980391</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35294117647058831</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50980392156862742</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54901960784313708</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58823529411764719</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66666666666666652</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74509803921568629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78431372549019596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82352941176470562</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.82352941176470607</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78431372549019596</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.74509803921568629</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.70588235294117663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.66666666666666652</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62745098039215685</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58823529411764719</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.54901960784313708</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50980392156862742</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.47058823529411775</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27450980392156854</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.23529411764705888</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19607843137254921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1568627450980391</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.11764705882352944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8431372549019773E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9215686274509665E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="53">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="57">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="58">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="61">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="66">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="69">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="70">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="71">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="72">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="74">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="76">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="77">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1121,11 +3305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="433834736"/>
-        <c:axId val="433832776"/>
+        <c:axId val="422245744"/>
+        <c:axId val="422244568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="433834736"/>
+        <c:axId val="422245744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1239,12 +3423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433832776"/>
+        <c:crossAx val="422244568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433832776"/>
+        <c:axId val="422244568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1286,7 +3470,18 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>dWater</a:t>
+                  <a:t>p(D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>→</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1358,1343 +3553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433834736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dWater!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p(I:D)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>dWater!$A$3:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>dWater!$C$3:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.14500000000000024</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.19000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.2350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.28000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.32500000000000018</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.41500000000000026</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.46000000000000019</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.50500000000000012</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.55000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.5950000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.64000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.68500000000000028</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.7300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.77500000000000036</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.82000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.86500000000000021</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.91000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.95500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0000000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="433829640"/>
-        <c:axId val="433833560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="433829640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="250"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>pressure head (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="433833560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="433833560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>dWater</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="433829640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dWater!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p(D:I)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>dWater!$A$3:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>dWater!$D$3:$D$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.333333333333337E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.41666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.58333333333333326</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.83333333333333326</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.83333333333333326</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.58333333333333326</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.41666666666666652</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.33333333333333348</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.16666666666666652</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.3333333333333481E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="433835520"/>
-        <c:axId val="433830424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="433835520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>pressure head (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="433830424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="433830424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>dWater</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="433835520"/>
+        <c:crossAx val="422245744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5151,12 +6010,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.19063</cdr:x>
-      <cdr:y>0.80903</cdr:y>
+      <cdr:x>0.23647</cdr:x>
+      <cdr:y>0.87153</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.31146</cdr:x>
-      <cdr:y>0.89931</cdr:y>
+      <cdr:x>0.42604</cdr:x>
+      <cdr:y>0.96181</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5165,8 +6024,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="871538" y="2219325"/>
-          <a:ext cx="552450" cy="247650"/>
+          <a:off x="1081126" y="2390793"/>
+          <a:ext cx="866714" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5182,8 +6041,112 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phWet</a:t>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>phWet = 51</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56319</cdr:x>
+      <cdr:y>0.58102</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75276</cdr:x>
+      <cdr:y>0.6713</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2574925" y="1593850"/>
+          <a:ext cx="866714" cy="247656"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>phDry = 102</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -6141,10 +7104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6450,10 +7413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6463,14 +7426,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6489,14 +7452,14 @@
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2">
         <f>(G2+G3)/2</f>
-        <v>90</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6504,11 +7467,11 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B53" si="0">IF(A3&lt;$G$2,-1/$G$2*A3+1,0)</f>
+        <f>IF(A3&lt;$G$2,1,IF(A3&lt;$G$3,(1/($G$2-$G$3))*A3-($G$3/($G$2-$G$3)),0))</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>IF(A3&lt;$G$2,($G$5-1)/$G$2*A3+1,IF(A3&gt;$G$3,IF(A3&gt;$G$4,1,$J$7*A3+$J$8),$G$5))</f>
+        <f>MAX($G$5,IF(A3&lt;$G$2,1,IF(A3&lt;=$G$3,(1/($G$2-$G$3))*A3-($G$3/($G$2 - $G$3)),IF(A3&gt;$G$3,IF(A3&gt;$G$4,1,$J$7*A3+$J$8),$G$5))))</f>
         <v>1</v>
       </c>
       <c r="D3">
@@ -6519,30 +7482,30 @@
         <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2">
         <f>1/(J2-G2)</f>
-        <v>1.6666666666666666E-2</v>
+        <v>3.9215686274509803E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="B4:B68" si="0">IF(A4&lt;$G$2,1,IF(A4&lt;$G$3,(1/($G$2-$G$3))*A4-($G$3/($G$2-$G$3)),0))</f>
+        <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C53" si="1">IF(A4&lt;$G$2,($G$5-1)/$G$2*A4+1,IF(A4&gt;$G$3,IF(A4&gt;$G$4,1,$J$7*A4+$J$8),$G$5))</f>
-        <v>0.85</v>
+        <f t="shared" ref="C4:C68" si="1">MAX($G$5,IF(A4&lt;$G$2,1,IF(A4&lt;=$G$3,(1/($G$2-$G$3))*A4-($G$3/($G$2 - $G$3)),IF(A4&gt;$G$3,IF(A4&gt;$G$4,1,$J$7*A4+$J$8),$G$5))))</f>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D53" si="2">MIN($G$6,IF(A4&lt;$G$2,0,IF(A4&gt;$G$3,0,IF(A4&lt;=$J$2,$J$3*A4+$J$4,$J$5*A4+$J$6))))</f>
+        <f t="shared" ref="D4" si="2">MIN($G$6,IF(A4&lt;$G$2,0,IF(A4&gt;$G$3,0,IF(A4&lt;=$J$2,$J$3*A4+$J$4,$J$5*A4+$J$6))))</f>
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -6556,23 +7519,23 @@
       </c>
       <c r="J4" s="2">
         <f>-1*G2*J3</f>
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D5:D90" si="3">MIN($G$6,IF(A5&lt;$G$2,0,IF(A5&gt;$G$3,0,IF(A5&lt;=$J$2,$J$3*A5+$J$4,$J$5*A5+$J$6))))</f>
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -6586,23 +7549,23 @@
       </c>
       <c r="J5" s="2">
         <f>1/(J2-G3)</f>
-        <v>-1.6666666666666666E-2</v>
+        <v>-3.9215686274509803E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -6615,72 +7578,72 @@
         <v>9</v>
       </c>
       <c r="J6" s="2">
-        <f>-1*G3*(1/(J2-G3))</f>
-        <v>2.5</v>
+        <f>-1*G3*J5</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="2">
-        <f>(1-G5)/(G4-G3)</f>
-        <v>9.0000000000000011E-3</v>
+        <f>(1)/(G4-G3)</f>
+        <v>6.7567567567567571E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0.24999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="2">
-        <f>G5-(G3*J7)</f>
-        <v>-1.25</v>
+        <f>-(G3*J7)</f>
+        <v>-0.68918918918918926</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9">
@@ -6689,738 +7652,738 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>8.333333333333337E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333337</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0.41666666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98039215686274517</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.98039215686274517</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333326</v>
+        <f t="shared" ref="D16:D18" si="4">MIN($G$6,IF(A16&lt;$G$2,0,IF(A16&gt;$G$3,0,IF(A16&lt;=$J$2,$J$3*A16+$J$4,$J$5*A16+$J$6))))</f>
+        <v>3.9215686274509665E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.96078431372549011</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.96078431372549011</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" si="4"/>
+        <v>7.8431372549019773E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
+        <f t="shared" si="4"/>
+        <v>0.11764705882352944</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92156862745098045</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.92156862745098045</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333326</v>
+        <f t="shared" si="3"/>
+        <v>0.1568627450980391</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <f t="shared" si="3"/>
+        <v>0.35294117647058831</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.74509803921568629</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.74509803921568629</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <f t="shared" si="3"/>
+        <v>0.50980392156862742</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.72549019607843146</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.72549019607843146</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
+        <f t="shared" si="3"/>
+        <v>0.54901960784313708</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.70588235294117641</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.70588235294117641</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333326</v>
+        <f t="shared" si="3"/>
+        <v>0.58823529411764719</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" si="3"/>
+        <v>0.74509803921568629</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60784313725490202</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.60784313725490202</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333326</v>
+        <f t="shared" si="3"/>
+        <v>0.78431372549019596</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.58823529411764719</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.58823529411764719</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.82352941176470562</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56862745098039214</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.56862745098039214</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>0.41666666666666652</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333348</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.52941176470588247</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.52941176470588247</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666652</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.49019607843137258</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.49019607843137258</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333481E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47058823529411775</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.47058823529411775</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4509803921568627</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>0.14500000000000024</v>
+        <v>0.4509803921568627</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43137254901960786</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>0.19000000000000017</v>
+        <v>0.43137254901960786</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41176470588235303</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>0.2350000000000001</v>
+        <v>0.41176470588235303</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.82352941176470607</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39215686274509798</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>0.28000000000000025</v>
+        <v>0.39215686274509798</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.78431372549019596</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>0.32500000000000018</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.74509803921568629</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35294117647058831</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>0.37000000000000011</v>
+        <v>0.35294117647058831</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.70588235294117663</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>0.41500000000000026</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>0.46000000000000019</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.62745098039215685</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29411764705882359</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>0.50500000000000012</v>
+        <v>0.29411764705882359</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.58823529411764719</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27450980392156854</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>0.55000000000000027</v>
+        <v>0.27450980392156854</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.54901960784313708</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>0.5950000000000002</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.50980392156862742</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23529411764705888</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>0.64000000000000012</v>
+        <v>0.23529411764705888</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.47058823529411775</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13725490196078427</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>0.68500000000000028</v>
+        <v>0.13725490196078427</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.27450980392156854</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11764705882352944</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>0.7300000000000002</v>
+        <v>0.11764705882352944</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.23529411764705888</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.8039215686274606E-2</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>0.77500000000000036</v>
+        <v>0.1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.19607843137254921</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.8431372549019551E-2</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>0.82000000000000028</v>
+        <v>0.1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.1568627450980391</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.8823529411764719E-2</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>0.86500000000000021</v>
+        <v>0.1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.11764705882352944</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9215686274509887E-2</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>0.91000000000000014</v>
+        <v>0.1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.8431372549019773E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9607843137254832E-2</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>0.95500000000000007</v>
+        <v>0.1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.9215686274509665E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -7428,10 +8391,639 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>1.0000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>103</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>104</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>105</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>106</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>110</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>115</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>116</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>117</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.10135135135135132</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>118</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>119</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.1148648648648648</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>120</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.1216216216216216</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>125</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.15540540540540537</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.18918918918918914</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>135</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>0.22297297297297292</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.2567567567567568</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>145</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B90" si="5">IF(A69&lt;$G$2,1,IF(A69&lt;$G$3,(1/($G$2-$G$3))*A69-($G$3/($G$2-$G$3)),0))</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C90" si="6">MAX($G$5,IF(A69&lt;$G$2,1,IF(A69&lt;=$G$3,(1/($G$2-$G$3))*A69-($G$3/($G$2 - $G$3)),IF(A69&gt;$G$3,IF(A69&gt;$G$4,1,$J$7*A69+$J$8),$G$5))))</f>
+        <v>0.29054054054054057</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>155</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>0.35810810810810811</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>160</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>165</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>0.42567567567567566</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>170</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>0.45945945945945943</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>175</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>0.4932432432432432</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>180</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>185</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>0.56081081081081074</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>190</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>0.59459459459459452</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>195</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>0.62837837837837829</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>200</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>0.66216216216216206</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>205</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>0.69594594594594605</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>210</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>0.72972972972972983</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>215</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>0.7635135135135136</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>220</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>0.79729729729729737</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>225</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>0.83108108108108114</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>230</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>0.86486486486486491</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>235</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>0.89864864864864868</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>240</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>0.93243243243243246</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>245</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>0.96621621621621623</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>250</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/Docs/Root Rot equations.xlsx
+++ b/Docs/Root Rot equations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16935" windowHeight="11970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dTemp" sheetId="2" r:id="rId1"/>
@@ -481,11 +481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420513624"/>
-        <c:axId val="420512840"/>
+        <c:axId val="389425856"/>
+        <c:axId val="389426248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420513624"/>
+        <c:axId val="389425856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -599,12 +599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420512840"/>
+        <c:crossAx val="389426248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420512840"/>
+        <c:axId val="389426248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -717,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420513624"/>
+        <c:crossAx val="389425856"/>
         <c:crossesAt val="-25"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1425,11 +1425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420514800"/>
-        <c:axId val="420518328"/>
+        <c:axId val="326581672"/>
+        <c:axId val="326582848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420514800"/>
+        <c:axId val="326581672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1544,12 +1544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420518328"/>
+        <c:crossAx val="326582848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420518328"/>
+        <c:axId val="326582848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1607,7 +1607,7 @@
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>p(S→I)</a:t>
+                  <a:t>Wetness Index (WI)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1000">
                   <a:effectLst/>
@@ -1696,7 +1696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420514800"/>
+        <c:crossAx val="326581672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2409,11 +2409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420518720"/>
-        <c:axId val="420511272"/>
+        <c:axId val="328031336"/>
+        <c:axId val="328033688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420518720"/>
+        <c:axId val="328031336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2527,12 +2527,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420511272"/>
+        <c:crossAx val="328033688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420511272"/>
+        <c:axId val="328033688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2657,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420518720"/>
+        <c:crossAx val="328031336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3305,11 +3305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422245744"/>
-        <c:axId val="422244568"/>
+        <c:axId val="328034080"/>
+        <c:axId val="328029376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422245744"/>
+        <c:axId val="328034080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3423,12 +3423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422244568"/>
+        <c:crossAx val="328029376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422244568"/>
+        <c:axId val="328029376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3553,7 +3553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422245744"/>
+        <c:crossAx val="328034080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6159,12 +6159,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14375</cdr:x>
-      <cdr:y>0.85069</cdr:y>
+      <cdr:x>0.15625</cdr:x>
+      <cdr:y>0.35069</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.275</cdr:x>
-      <cdr:y>0.94097</cdr:y>
+      <cdr:x>0.34375</cdr:x>
+      <cdr:y>0.44097</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6173,12 +6173,15 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="657225" y="2333613"/>
-          <a:ext cx="600075" cy="247656"/>
+          <a:off x="714375" y="962013"/>
+          <a:ext cx="857250" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -6191,7 +6194,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phWet </a:t>
+            <a:t>phWet = 51</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -6199,12 +6202,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55278</cdr:x>
-      <cdr:y>0.82639</cdr:y>
+      <cdr:x>0.25278</cdr:x>
+      <cdr:y>0.68056</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66875</cdr:x>
-      <cdr:y>0.91667</cdr:y>
+      <cdr:x>0.42708</cdr:x>
+      <cdr:y>0.77084</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6213,8 +6216,334 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2527295" y="2266953"/>
-          <a:ext cx="530230" cy="247656"/>
+          <a:off x="1155710" y="1866903"/>
+          <a:ext cx="796915" cy="247656"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phDry = 102 </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7882</cdr:x>
+      <cdr:y>0.0706</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99375</cdr:x>
+      <cdr:y>0.16088</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3603635" y="193664"/>
+          <a:ext cx="939790" cy="247656"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>phMax = 250</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56111</cdr:x>
+      <cdr:y>0.68171</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.80208</cdr:x>
+      <cdr:y>0.77199</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2565410" y="1870070"/>
+          <a:ext cx="1101715" cy="247656"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>minProbID = 0.1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48194</cdr:x>
+      <cdr:y>0.20255</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74583</cdr:x>
+      <cdr:y>0.29283</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2203444" y="555629"/>
+          <a:ext cx="1206505" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6295,7 +6624,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phDry </a:t>
+            <a:t>maxProbDI = 0.85</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -6303,12 +6632,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.87153</cdr:x>
-      <cdr:y>0.07407</cdr:y>
+      <cdr:x>0.22361</cdr:x>
+      <cdr:y>0.86227</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98542</cdr:x>
-      <cdr:y>0.16435</cdr:y>
+      <cdr:x>0.40208</cdr:x>
+      <cdr:y>0.95255</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6317,8 +6646,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3984636" y="203198"/>
-          <a:ext cx="520690" cy="247656"/>
+          <a:off x="1022359" y="2365382"/>
+          <a:ext cx="815965" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6399,7 +6728,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phMax</a:t>
+            <a:t>phWet = 51</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -6407,12 +6736,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.65278</cdr:x>
-      <cdr:y>0.66435</cdr:y>
+      <cdr:x>0.55486</cdr:x>
+      <cdr:y>0.6713</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.82917</cdr:x>
-      <cdr:y>0.75463</cdr:y>
+      <cdr:x>0.73542</cdr:x>
+      <cdr:y>0.76158</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6421,8 +6750,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2984510" y="1822445"/>
-          <a:ext cx="806440" cy="247656"/>
+          <a:off x="2536820" y="1841504"/>
+          <a:ext cx="825505" cy="247656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6503,324 +6832,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>minProbID</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.56111</cdr:x>
-      <cdr:y>0.20602</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.74375</cdr:x>
-      <cdr:y>0.2963</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2565396" y="565154"/>
-          <a:ext cx="835030" cy="247656"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>maxProbDI</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.19028</cdr:x>
-      <cdr:y>0.81366</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.31458</cdr:x>
-      <cdr:y>0.90394</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="869960" y="2232029"/>
-          <a:ext cx="568315" cy="247656"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phWet</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.69236</cdr:x>
-      <cdr:y>0.86227</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.80833</cdr:x>
-      <cdr:y>0.95255</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3165455" y="2365379"/>
-          <a:ext cx="530245" cy="247656"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>phDry</a:t>
+            <a:t>phDry = 102</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -7415,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
